--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544988E1-EB93-4817-A877-52D91B4C933D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6163215-5B20-4E15-A553-FBD0E54DC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>clés</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>Carte d'accès</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Chorizo pizza</t>
+  </si>
+  <si>
+    <t>Pizza au chorizo</t>
+  </si>
+  <si>
+    <t>Boisson gazeuse aux cerises</t>
+  </si>
+  <si>
+    <t>Cherry soft drink</t>
   </si>
 </sst>
 </file>
@@ -411,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +470,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6163215-5B20-4E15-A553-FBD0E54DC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6EDB4-68EB-4DE7-B896-7F5E7FC9AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>clés</t>
   </si>
@@ -44,18 +44,12 @@
     <t>fr</t>
   </si>
   <si>
-    <t>Ham Sandwich</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
     <t>Access Card</t>
   </si>
   <si>
-    <t>Sandwich au jambon</t>
-  </si>
-  <si>
     <t>Crédit</t>
   </si>
   <si>
@@ -75,6 +69,30 @@
   </si>
   <si>
     <t>Cherry soft drink</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Carton</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Bague</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
+    <t>Grilled sandwich</t>
+  </si>
+  <si>
+    <t>Croque monsieur</t>
   </si>
 </sst>
 </file>
@@ -426,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,50 +466,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6EDB4-68EB-4DE7-B896-7F5E7FC9AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB9C10-1CF3-499A-89B0-FF7B4A94E25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>clés</t>
   </si>
@@ -89,10 +89,28 @@
     <t>Hamburger</t>
   </si>
   <si>
-    <t>Grilled sandwich</t>
-  </si>
-  <si>
-    <t>Croque monsieur</t>
+    <t>Grilled ham sandwich</t>
+  </si>
+  <si>
+    <t>Croque monsieur au jambon</t>
+  </si>
+  <si>
+    <t>Ham sandwich</t>
+  </si>
+  <si>
+    <t>Sandwich au jambon</t>
+  </si>
+  <si>
+    <t>Ham sandwich with pickles</t>
+  </si>
+  <si>
+    <t>Sandwich au jambon et cornichons</t>
+  </si>
+  <si>
+    <t>Cornichons</t>
+  </si>
+  <si>
+    <t>Pickles</t>
   </si>
 </sst>
 </file>
@@ -444,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +554,30 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB9C10-1CF3-499A-89B0-FF7B4A94E25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A22744-EF46-4028-9C65-8E03901B832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>clés</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Pickles</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Pain</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +584,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A22744-EF46-4028-9C65-8E03901B832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE50028-448D-42B3-A6FA-6587F7175DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>clés</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>Pain</t>
+  </si>
+  <si>
+    <t>It's not a sandwich but a croque monsieur</t>
+  </si>
+  <si>
+    <t>Ce n'est pas un sandwich mais un croque monsieur</t>
+  </si>
+  <si>
+    <t>This sandwich is appetizing but I prefer it with pickles.</t>
+  </si>
+  <si>
+    <t>Ce sandwich est appétissant mais je préfère avec des cornichons</t>
+  </si>
+  <si>
+    <t>Well, I'm off in search of pickles to put in that sandwich.</t>
+  </si>
+  <si>
+    <t>Bien je vais partir en quête de cornichons à mettre dans ce sandwich</t>
   </si>
 </sst>
 </file>
@@ -468,16 +486,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,6 +610,30 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE50028-448D-42B3-A6FA-6587F7175DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334CA283-5FA4-48B7-970E-90FB97B0D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -107,12 +107,6 @@
     <t>Sandwich au jambon et cornichons</t>
   </si>
   <si>
-    <t>Cornichons</t>
-  </si>
-  <si>
-    <t>Pickles</t>
-  </si>
-  <si>
     <t>Bread</t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>Bien je vais partir en quête de cornichons à mettre dans ce sandwich</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
+    <t>Cornichon</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +588,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,34 +604,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334CA283-5FA4-48B7-970E-90FB97B0D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{334CA283-5FA4-48B7-970E-90FB97B0D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A99A38-6D08-4D9B-ACC5-7159CB29B38F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>clés</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Cornichon</t>
+  </si>
+  <si>
+    <t>Crowbar</t>
+  </si>
+  <si>
+    <t>Pied de biche</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,6 +640,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/items.xlsx
+++ b/assets/i18n/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{334CA283-5FA4-48B7-970E-90FB97B0D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A99A38-6D08-4D9B-ACC5-7159CB29B38F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{334CA283-5FA4-48B7-970E-90FB97B0D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3AD110-6FCC-4F8F-9AA4-157AEA5AEEE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>clés</t>
   </si>
@@ -113,24 +113,6 @@
     <t>Pain</t>
   </si>
   <si>
-    <t>It's not a sandwich but a croque monsieur</t>
-  </si>
-  <si>
-    <t>Ce n'est pas un sandwich mais un croque monsieur</t>
-  </si>
-  <si>
-    <t>This sandwich is appetizing but I prefer it with pickles.</t>
-  </si>
-  <si>
-    <t>Ce sandwich est appétissant mais je préfère avec des cornichons</t>
-  </si>
-  <si>
-    <t>Well, I'm off in search of pickles to put in that sandwich.</t>
-  </si>
-  <si>
-    <t>Bien je vais partir en quête de cornichons à mettre dans ce sandwich</t>
-  </si>
-  <si>
     <t>Pickle</t>
   </si>
   <si>
@@ -141,6 +123,12 @@
   </si>
   <si>
     <t>Pied de biche</t>
+  </si>
+  <si>
+    <t>Fermé à clé</t>
+  </si>
+  <si>
+    <t>Keylocked</t>
   </si>
 </sst>
 </file>
@@ -492,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,10 +582,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,34 +606,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
